--- a/2FA Attempt.xlsx
+++ b/2FA Attempt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70015335\Documents\UiPath\2FA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21760522-1885-40AD-977F-6DC9EEB15598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA085DCB-D6F1-4505-A44D-363E2073ABFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
